--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理刑事一审案件收结案情况/人民法院刑事收案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理刑事一审案件收结案情况/人民法院刑事收案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,821 +493,481 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>184233</v>
+      </c>
+      <c r="C2" t="n">
+        <v>293561</v>
+      </c>
+      <c r="D2" t="n">
+        <v>679</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12540</v>
+      </c>
       <c r="F2" t="n">
-        <v>560432</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>779595</v>
+      </c>
+      <c r="G2" t="n">
+        <v>88950</v>
+      </c>
+      <c r="H2" t="n">
+        <v>207</v>
+      </c>
+      <c r="I2" t="n">
+        <v>153201</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4489</v>
+      </c>
+      <c r="K2" t="n">
+        <v>30386</v>
+      </c>
+      <c r="L2" t="n">
+        <v>23889</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193579</v>
+        <v>188147</v>
       </c>
       <c r="C3" t="n">
-        <v>265586</v>
+        <v>302157</v>
       </c>
       <c r="D3" t="n">
-        <v>325</v>
+        <v>1311</v>
       </c>
       <c r="E3" t="n">
-        <v>53591</v>
+        <v>10716</v>
       </c>
       <c r="F3" t="n">
-        <v>628996</v>
+        <v>845714</v>
       </c>
       <c r="G3" t="n">
-        <v>51572</v>
+        <v>119659</v>
       </c>
       <c r="H3" t="n">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="I3" t="n">
-        <v>78933</v>
+        <v>171840</v>
       </c>
       <c r="J3" t="n">
-        <v>1839</v>
+        <v>4611</v>
       </c>
       <c r="K3" t="n">
-        <v>15204</v>
+        <v>34577</v>
       </c>
       <c r="L3" t="n">
-        <v>21800</v>
+        <v>23232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186463</v>
+        <v>195816</v>
       </c>
       <c r="C4" t="n">
-        <v>277796</v>
+        <v>342667</v>
       </c>
       <c r="D4" t="n">
-        <v>341</v>
+        <v>1396</v>
       </c>
       <c r="E4" t="n">
-        <v>42863</v>
+        <v>9905</v>
       </c>
       <c r="F4" t="n">
-        <v>631348</v>
+        <v>996611</v>
       </c>
       <c r="G4" t="n">
-        <v>53433</v>
+        <v>175439</v>
       </c>
       <c r="H4" t="n">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="I4" t="n">
-        <v>77196</v>
+        <v>183841</v>
       </c>
       <c r="J4" t="n">
-        <v>1541</v>
+        <v>5596</v>
       </c>
       <c r="K4" t="n">
-        <v>15252</v>
+        <v>64963</v>
       </c>
       <c r="L4" t="n">
-        <v>19192</v>
+        <v>26680</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>182642</v>
+        <v>186280</v>
       </c>
       <c r="C5" t="n">
-        <v>278629</v>
+        <v>306014</v>
       </c>
       <c r="D5" t="n">
-        <v>304</v>
+        <v>957</v>
       </c>
       <c r="E5" t="n">
-        <v>39464</v>
+        <v>8240</v>
       </c>
       <c r="F5" t="n">
-        <v>632605</v>
+        <v>971567</v>
       </c>
       <c r="G5" t="n">
-        <v>57369</v>
+        <v>193275</v>
       </c>
       <c r="H5" t="n">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="I5" t="n">
-        <v>76072</v>
+        <v>201688</v>
       </c>
       <c r="J5" t="n">
-        <v>2082</v>
+        <v>5703</v>
       </c>
       <c r="K5" t="n">
-        <v>14591</v>
+        <v>51987</v>
       </c>
       <c r="L5" t="n">
-        <v>20765</v>
+        <v>25416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175494</v>
+        <v>187631</v>
       </c>
       <c r="C6" t="n">
-        <v>285242</v>
+        <v>311652</v>
       </c>
       <c r="D6" t="n">
-        <v>333</v>
+        <v>1093</v>
       </c>
       <c r="E6" t="n">
-        <v>34142</v>
+        <v>7166</v>
       </c>
       <c r="F6" t="n">
-        <v>647541</v>
+        <v>1040457</v>
       </c>
       <c r="G6" t="n">
-        <v>68795</v>
+        <v>219894</v>
       </c>
       <c r="H6" t="n">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="I6" t="n">
-        <v>79073</v>
+        <v>228684</v>
       </c>
       <c r="J6" t="n">
-        <v>2560</v>
+        <v>5927</v>
       </c>
       <c r="K6" t="n">
-        <v>13920</v>
+        <v>57776</v>
       </c>
       <c r="L6" t="n">
-        <v>21973</v>
+        <v>27543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177701</v>
+        <v>183526</v>
       </c>
       <c r="C7" t="n">
-        <v>304641</v>
+        <v>318680</v>
       </c>
       <c r="D7" t="n">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="E7" t="n">
-        <v>29396</v>
+        <v>9952</v>
       </c>
       <c r="F7" t="n">
-        <v>684897</v>
+        <v>1126748</v>
       </c>
       <c r="G7" t="n">
-        <v>75099</v>
+        <v>247795</v>
       </c>
       <c r="H7" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="I7" t="n">
-        <v>87501</v>
+        <v>279822</v>
       </c>
       <c r="J7" t="n">
-        <v>2664</v>
+        <v>5779</v>
       </c>
       <c r="K7" t="n">
-        <v>15229</v>
+        <v>61639</v>
       </c>
       <c r="L7" t="n">
-        <v>21558</v>
+        <v>28846</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175705</v>
+        <v>167304</v>
       </c>
       <c r="C8" t="n">
-        <v>310666</v>
+        <v>319007</v>
       </c>
       <c r="D8" t="n">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="E8" t="n">
-        <v>23914</v>
+        <v>17360</v>
       </c>
       <c r="F8" t="n">
-        <v>702445</v>
+        <v>1101191</v>
       </c>
       <c r="G8" t="n">
-        <v>79583</v>
+        <v>271877</v>
       </c>
       <c r="H8" t="n">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c r="I8" t="n">
-        <v>95330</v>
+        <v>254357</v>
       </c>
       <c r="J8" t="n">
-        <v>2881</v>
+        <v>5131</v>
       </c>
       <c r="K8" t="n">
-        <v>16792</v>
+        <v>58946</v>
       </c>
       <c r="L8" t="n">
-        <v>20952</v>
+        <v>24011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>172101</v>
+        <v>172203</v>
       </c>
       <c r="C9" t="n">
-        <v>317339</v>
+        <v>329175</v>
       </c>
       <c r="D9" t="n">
-        <v>306</v>
+        <v>441</v>
       </c>
       <c r="E9" t="n">
-        <v>19321</v>
+        <v>14724</v>
       </c>
       <c r="F9" t="n">
-        <v>724112</v>
+        <v>1294377</v>
       </c>
       <c r="G9" t="n">
-        <v>84795</v>
+        <v>346856</v>
       </c>
       <c r="H9" t="n">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="I9" t="n">
-        <v>106412</v>
+        <v>355179</v>
       </c>
       <c r="J9" t="n">
-        <v>3148</v>
+        <v>5278</v>
       </c>
       <c r="K9" t="n">
-        <v>19228</v>
+        <v>59461</v>
       </c>
       <c r="L9" t="n">
-        <v>20563</v>
+        <v>25443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176416</v>
+        <v>168019</v>
       </c>
       <c r="C10" t="n">
-        <v>330525</v>
+        <v>310216</v>
       </c>
       <c r="D10" t="n">
-        <v>583</v>
+        <v>257</v>
       </c>
       <c r="E10" t="n">
-        <v>16546</v>
+        <v>13225</v>
       </c>
       <c r="F10" t="n">
-        <v>767842</v>
+        <v>1203055</v>
       </c>
       <c r="G10" t="n">
-        <v>90396</v>
+        <v>340629</v>
       </c>
       <c r="H10" t="n">
-        <v>181</v>
+        <v>802</v>
       </c>
       <c r="I10" t="n">
-        <v>121901</v>
+        <v>283126</v>
       </c>
       <c r="J10" t="n">
-        <v>3793</v>
+        <v>2424</v>
       </c>
       <c r="K10" t="n">
-        <v>21833</v>
+        <v>81381</v>
       </c>
       <c r="L10" t="n">
-        <v>22214</v>
+        <v>16201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180677</v>
+        <v>166237</v>
       </c>
       <c r="C11" t="n">
-        <v>314219</v>
+        <v>315482</v>
       </c>
       <c r="D11" t="n">
-        <v>572</v>
+        <v>317</v>
       </c>
       <c r="E11" t="n">
-        <v>14613</v>
+        <v>10221</v>
       </c>
       <c r="F11" t="n">
-        <v>768507</v>
+        <v>1293911</v>
       </c>
       <c r="G11" t="n">
-        <v>86987</v>
+        <v>417017</v>
       </c>
       <c r="H11" t="n">
-        <v>196</v>
+        <v>482</v>
       </c>
       <c r="I11" t="n">
-        <v>134380</v>
+        <v>309166</v>
       </c>
       <c r="J11" t="n">
-        <v>4003</v>
+        <v>2059</v>
       </c>
       <c r="K11" t="n">
-        <v>25240</v>
+        <v>69743</v>
       </c>
       <c r="L11" t="n">
-        <v>22233</v>
+        <v>13408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>184233</v>
+        <v>136289</v>
       </c>
       <c r="C12" t="n">
-        <v>293561</v>
+        <v>274666</v>
       </c>
       <c r="D12" t="n">
-        <v>679</v>
+        <v>417</v>
       </c>
       <c r="E12" t="n">
-        <v>12540</v>
+        <v>6766</v>
       </c>
       <c r="F12" t="n">
-        <v>779595</v>
+        <v>1107610</v>
       </c>
       <c r="G12" t="n">
-        <v>88950</v>
+        <v>365228</v>
       </c>
       <c r="H12" t="n">
-        <v>207</v>
+        <v>397</v>
       </c>
       <c r="I12" t="n">
-        <v>153201</v>
+        <v>250895</v>
       </c>
       <c r="J12" t="n">
-        <v>4489</v>
+        <v>1788</v>
       </c>
       <c r="K12" t="n">
-        <v>30386</v>
+        <v>67090</v>
       </c>
       <c r="L12" t="n">
-        <v>23889</v>
+        <v>10840</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188147</v>
+        <v>149046</v>
       </c>
       <c r="C13" t="n">
-        <v>302157</v>
+        <v>271533</v>
       </c>
       <c r="D13" t="n">
-        <v>1311</v>
+        <v>303</v>
       </c>
       <c r="E13" t="n">
-        <v>10716</v>
+        <v>9267</v>
       </c>
       <c r="F13" t="n">
-        <v>845714</v>
+        <v>1277197</v>
       </c>
       <c r="G13" t="n">
-        <v>119659</v>
+        <v>435951</v>
       </c>
       <c r="H13" t="n">
-        <v>180</v>
+        <v>437</v>
       </c>
       <c r="I13" t="n">
-        <v>171840</v>
+        <v>330311</v>
       </c>
       <c r="J13" t="n">
-        <v>4611</v>
+        <v>2001</v>
       </c>
       <c r="K13" t="n">
-        <v>34577</v>
+        <v>74734</v>
       </c>
       <c r="L13" t="n">
-        <v>23232</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>195816</v>
-      </c>
-      <c r="C14" t="n">
-        <v>342667</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1396</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9905</v>
-      </c>
-      <c r="F14" t="n">
-        <v>996611</v>
-      </c>
-      <c r="G14" t="n">
-        <v>175439</v>
-      </c>
-      <c r="H14" t="n">
-        <v>213</v>
-      </c>
-      <c r="I14" t="n">
-        <v>183841</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5596</v>
-      </c>
-      <c r="K14" t="n">
-        <v>64963</v>
-      </c>
-      <c r="L14" t="n">
-        <v>26680</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>186280</v>
-      </c>
-      <c r="C15" t="n">
-        <v>306014</v>
-      </c>
-      <c r="D15" t="n">
-        <v>957</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8240</v>
-      </c>
-      <c r="F15" t="n">
-        <v>971567</v>
-      </c>
-      <c r="G15" t="n">
-        <v>193275</v>
-      </c>
-      <c r="H15" t="n">
-        <v>247</v>
-      </c>
-      <c r="I15" t="n">
-        <v>201688</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5703</v>
-      </c>
-      <c r="K15" t="n">
-        <v>51987</v>
-      </c>
-      <c r="L15" t="n">
-        <v>25416</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>187631</v>
-      </c>
-      <c r="C16" t="n">
-        <v>311652</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1093</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7166</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1040457</v>
-      </c>
-      <c r="G16" t="n">
-        <v>219894</v>
-      </c>
-      <c r="H16" t="n">
-        <v>257</v>
-      </c>
-      <c r="I16" t="n">
-        <v>228684</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5927</v>
-      </c>
-      <c r="K16" t="n">
-        <v>57776</v>
-      </c>
-      <c r="L16" t="n">
-        <v>27543</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>183526</v>
-      </c>
-      <c r="C17" t="n">
-        <v>318680</v>
-      </c>
-      <c r="D17" t="n">
-        <v>439</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9952</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1126748</v>
-      </c>
-      <c r="G17" t="n">
-        <v>247795</v>
-      </c>
-      <c r="H17" t="n">
-        <v>222</v>
-      </c>
-      <c r="I17" t="n">
-        <v>279822</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5779</v>
-      </c>
-      <c r="K17" t="n">
-        <v>61639</v>
-      </c>
-      <c r="L17" t="n">
-        <v>28846</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>167304</v>
-      </c>
-      <c r="C18" t="n">
-        <v>319007</v>
-      </c>
-      <c r="D18" t="n">
-        <v>265</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17360</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1101191</v>
-      </c>
-      <c r="G18" t="n">
-        <v>271877</v>
-      </c>
-      <c r="H18" t="n">
-        <v>293</v>
-      </c>
-      <c r="I18" t="n">
-        <v>254357</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5131</v>
-      </c>
-      <c r="K18" t="n">
-        <v>58946</v>
-      </c>
-      <c r="L18" t="n">
-        <v>24011</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>172203</v>
-      </c>
-      <c r="C19" t="n">
-        <v>329175</v>
-      </c>
-      <c r="D19" t="n">
-        <v>441</v>
-      </c>
-      <c r="E19" t="n">
-        <v>14724</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1294377</v>
-      </c>
-      <c r="G19" t="n">
-        <v>346856</v>
-      </c>
-      <c r="H19" t="n">
-        <v>341</v>
-      </c>
-      <c r="I19" t="n">
-        <v>355179</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5278</v>
-      </c>
-      <c r="K19" t="n">
-        <v>59461</v>
-      </c>
-      <c r="L19" t="n">
-        <v>25443</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>168019</v>
-      </c>
-      <c r="C20" t="n">
-        <v>310216</v>
-      </c>
-      <c r="D20" t="n">
-        <v>257</v>
-      </c>
-      <c r="E20" t="n">
-        <v>13225</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1203055</v>
-      </c>
-      <c r="G20" t="n">
-        <v>340629</v>
-      </c>
-      <c r="H20" t="n">
-        <v>802</v>
-      </c>
-      <c r="I20" t="n">
-        <v>283126</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2424</v>
-      </c>
-      <c r="K20" t="n">
-        <v>81381</v>
-      </c>
-      <c r="L20" t="n">
-        <v>16201</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>166237</v>
-      </c>
-      <c r="C21" t="n">
-        <v>315482</v>
-      </c>
-      <c r="D21" t="n">
-        <v>317</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10221</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1293911</v>
-      </c>
-      <c r="G21" t="n">
-        <v>417017</v>
-      </c>
-      <c r="H21" t="n">
-        <v>482</v>
-      </c>
-      <c r="I21" t="n">
-        <v>309166</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2059</v>
-      </c>
-      <c r="K21" t="n">
-        <v>69743</v>
-      </c>
-      <c r="L21" t="n">
-        <v>13408</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>136289</v>
-      </c>
-      <c r="C22" t="n">
-        <v>274666</v>
-      </c>
-      <c r="D22" t="n">
-        <v>417</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6766</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1107610</v>
-      </c>
-      <c r="G22" t="n">
-        <v>365228</v>
-      </c>
-      <c r="H22" t="n">
-        <v>397</v>
-      </c>
-      <c r="I22" t="n">
-        <v>250895</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1788</v>
-      </c>
-      <c r="K22" t="n">
-        <v>67090</v>
-      </c>
-      <c r="L22" t="n">
-        <v>10840</v>
+        <v>12881</v>
       </c>
     </row>
   </sheetData>
